--- a/02 Satvata/03 Product Backlog.xlsx
+++ b/02 Satvata/03 Product Backlog.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SATVATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sadhana Module" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="161">
   <si>
     <t>Should Do</t>
   </si>
@@ -315,13 +317,205 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>View list of devotees</t>
+  </si>
+  <si>
+    <t>Add a devotee</t>
+  </si>
+  <si>
+    <t>Download devotee data</t>
+  </si>
+  <si>
+    <t>Filter based on ashram</t>
+  </si>
+  <si>
+    <t>Search based on devotee name</t>
+  </si>
+  <si>
+    <t>Search based on devotee short name</t>
+  </si>
+  <si>
+    <t>Search based on id</t>
+  </si>
+  <si>
+    <t>Search based on Service</t>
+  </si>
+  <si>
+    <t>Search based on Facilitator</t>
+  </si>
+  <si>
+    <t>Search based on Date of Joining</t>
+  </si>
+  <si>
+    <t>Search based on years in ISKCON</t>
+  </si>
+  <si>
+    <t>View Personal Details</t>
+  </si>
+  <si>
+    <t>View Sadhana Details</t>
+  </si>
+  <si>
+    <t>View Medical Details</t>
+  </si>
+  <si>
+    <t>View Travel Details</t>
+  </si>
+  <si>
+    <t>Update devotee transfer</t>
+  </si>
+  <si>
+    <t>Sadhana</t>
+  </si>
+  <si>
+    <t>Filter based on devotee name</t>
+  </si>
+  <si>
+    <t>Filter based on date range</t>
+  </si>
+  <si>
+    <t>Filter based on Facilitator</t>
+  </si>
+  <si>
+    <t>Filter based on Service</t>
+  </si>
+  <si>
+    <t>Filter based on Ashram</t>
+  </si>
+  <si>
+    <t>View devotee sadhana for all angas</t>
+  </si>
+  <si>
+    <t>View devotee sadhana timings</t>
+  </si>
+  <si>
+    <t>View devotee sadhana points</t>
+  </si>
+  <si>
+    <t>Edit devotee sadhana points</t>
+  </si>
+  <si>
+    <t>Edit devotee sadhana excuses</t>
+  </si>
+  <si>
+    <t>Daily Sadhana Report</t>
+  </si>
+  <si>
+    <t>Weekly Sadhana Report</t>
+  </si>
+  <si>
+    <t>Monthly Sadhana Report</t>
+  </si>
+  <si>
+    <t>Weekly Summary Report</t>
+  </si>
+  <si>
+    <t>Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>Monthly Percentage Summary Report</t>
+  </si>
+  <si>
+    <t>Sadhana Dashboard Report</t>
+  </si>
+  <si>
+    <t>Sadhana Scorecard Report</t>
+  </si>
+  <si>
+    <t>Sadhana Scorecard Frame</t>
+  </si>
+  <si>
+    <t>Daily Pujari Report</t>
+  </si>
+  <si>
+    <t>Report Filters</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Facilitator</t>
+  </si>
+  <si>
+    <t>Ashram</t>
+  </si>
+  <si>
+    <t>Edit devotee data</t>
+  </si>
+  <si>
+    <t>Devotee ID</t>
+  </si>
+  <si>
+    <t>Devotee Name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>US-DSD-001</t>
+  </si>
+  <si>
+    <t>US-DSD-002</t>
+  </si>
+  <si>
+    <t>US-DSD-003</t>
+  </si>
+  <si>
+    <t>US-DSD-004</t>
+  </si>
+  <si>
+    <t>US-DSD-005</t>
+  </si>
+  <si>
+    <t>US-DSD-006</t>
+  </si>
+  <si>
+    <t>US-DSD-007</t>
+  </si>
+  <si>
+    <t>US-DSD-008</t>
+  </si>
+  <si>
+    <t>US-DSD-009</t>
+  </si>
+  <si>
+    <t>Register a Devotee</t>
+  </si>
+  <si>
+    <t>Update Current Service</t>
+  </si>
+  <si>
+    <t>View Devotee List</t>
+  </si>
+  <si>
+    <t>View Sadhana Points</t>
+  </si>
+  <si>
+    <t>View Sadhana Attendance</t>
+  </si>
+  <si>
+    <t>Edit Sadhana Points</t>
+  </si>
+  <si>
+    <t>Update Sadhana Excuses</t>
+  </si>
+  <si>
+    <t>Filter Sadhana Data</t>
+  </si>
+  <si>
+    <t>TC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +528,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,11 +579,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
     <dxf>
       <font>
         <strike val="0"/>
@@ -383,11 +597,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -425,39 +639,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -579,6 +765,238 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -593,21 +1011,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13245" displayName="Table13245" ref="A1:L36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13245" displayName="Table13245" ref="A1:L36" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:L36"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Story ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Role" dataDxfId="12"/>
-    <tableColumn id="3" name="Story Title" dataDxfId="11"/>
-    <tableColumn id="4" name="Theme" dataDxfId="10"/>
-    <tableColumn id="5" name="Written By" dataDxfId="9"/>
-    <tableColumn id="9" name="Priority" dataDxfId="8"/>
-    <tableColumn id="13" name="Complexity" dataDxfId="7"/>
-    <tableColumn id="7" name="MoSCoW" dataDxfId="6"/>
-    <tableColumn id="6" name="Points" dataDxfId="2"/>
-    <tableColumn id="8" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="1" name="Story ID" dataDxfId="25"/>
+    <tableColumn id="2" name="Role" dataDxfId="24"/>
+    <tableColumn id="3" name="Story Title" dataDxfId="23"/>
+    <tableColumn id="4" name="Theme" dataDxfId="22"/>
+    <tableColumn id="5" name="Written By" dataDxfId="21"/>
+    <tableColumn id="9" name="Priority" dataDxfId="20"/>
+    <tableColumn id="13" name="Complexity" dataDxfId="19"/>
+    <tableColumn id="7" name="MoSCoW" dataDxfId="18"/>
+    <tableColumn id="6" name="Points" dataDxfId="17"/>
+    <tableColumn id="8" name="Sprint" dataDxfId="16"/>
+    <tableColumn id="10" name="Reviewed On" dataDxfId="15"/>
+    <tableColumn id="11" name="Released On" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table132453" displayName="Table132453" ref="A1:L36" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L36"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Story ID" dataDxfId="11"/>
+    <tableColumn id="2" name="Role" dataDxfId="10"/>
+    <tableColumn id="3" name="Story Title" dataDxfId="9"/>
+    <tableColumn id="4" name="Theme" dataDxfId="8"/>
+    <tableColumn id="5" name="Written By" dataDxfId="7"/>
+    <tableColumn id="9" name="Priority" dataDxfId="6"/>
+    <tableColumn id="13" name="Complexity" dataDxfId="5"/>
+    <tableColumn id="7" name="MoSCoW" dataDxfId="4"/>
+    <tableColumn id="6" name="Points" dataDxfId="3"/>
+    <tableColumn id="8" name="Sprint" dataDxfId="2"/>
     <tableColumn id="10" name="Reviewed On" dataDxfId="1"/>
-    <tableColumn id="11" name="Released On" dataDxfId="5"/>
+    <tableColumn id="11" name="Released On" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1814,4 +2253,596 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="12:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G36">
+      <formula1>"Feature, Change, Defect, Technical, Research"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/02 Satvata/03 Product Backlog.xlsx
+++ b/02 Satvata/03 Product Backlog.xlsx
@@ -2845,4 +2845,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C59E5EADCF4DCE43B0849C4BA8B8C042" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e854f84f8048972b20cfbda0141b214b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abc59ee2edf01cfb808cadb27e045d28">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C5AE7C-46F7-4641-BA48-4CDAAA868C2F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E9AD5EF-810B-49C7-ADD3-379340D8EE00}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1890CBDC-B46E-4FD6-8788-513D60A7B41F}"/>
 </file>